--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雷克斯\Desktop\Coding\sampleVocabularySystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A77FF9-CC84-4CCB-AC37-66E69C904020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E774654-6628-4FDE-8A50-E00D8607A760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>單字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,27 +39,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蘋果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">n. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
+    <t>profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利潤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utensil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.n.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件 歸檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predicted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預料到的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convincing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人信服的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正式的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refusal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒絕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效率的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投幣口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送醫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convinced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banquets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptionist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待 / 收據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.v.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程 / 計畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finacial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imform…of…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收穫 / 導致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complementary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充 另外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accoutant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletin board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公佈欄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軟管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broaden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擴大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招待會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防栓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -411,10 +723,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -429,6 +741,407 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雷克斯\Desktop\Coding\sampleVocabularySystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E774654-6628-4FDE-8A50-E00D8607A760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3905C4B-3D77-4FDC-8744-DD0591873493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="217">
   <si>
     <t>單字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,525 @@
   </si>
   <si>
     <t>收到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降 衰退 拒絕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seeker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求職者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>態度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availaballity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有空的 隨叫隨到的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline th comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不予至評</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retailer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諮詢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respectively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negotiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>談判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budgetion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">組裝 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">commit </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">委託 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">木板 公告欄 甲板 董事會 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補給品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財政的  會計的 會計年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">組織者 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n. v. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">利益  有利於 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">延伸 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courteous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">有禮貌的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">好客的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自始至終 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appreciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">欣賞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估計 秤重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小販</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顧問 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被提名者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">講師 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">速度 比例 費用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">利率 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">room rate </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可比較的 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laboratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">實驗室 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">電子產品 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">發票 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">退休金(錢) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">招考 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro'duce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"produce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製造業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invest in V.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投資 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budgeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預算 相關業務 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保證</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warranty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>committees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管委會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorandum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備忘錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升遷 提升 促銷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">統計 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">turn in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finalize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resignation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辭呈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出席 照顧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,8 +934,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -697,20 +1217,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -732,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -754,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -765,7 +1285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -776,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -787,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -798,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -809,7 +1329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -820,7 +1340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -831,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -842,7 +1362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -853,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -864,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -875,7 +1395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -886,7 +1406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -897,7 +1417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -908,7 +1428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -919,7 +1439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -930,7 +1450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -941,7 +1461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -952,7 +1472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -963,7 +1483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -974,7 +1494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -985,7 +1505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -996,7 +1516,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1004,7 +1524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1015,7 +1535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1023,7 +1543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1034,7 +1554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1045,7 +1565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1056,7 +1576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1067,7 +1587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1078,7 +1598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1089,7 +1609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1100,7 +1620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1111,7 +1631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1122,7 +1642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1133,7 +1653,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1142,6 +1662,707 @@
       </c>
       <c r="C40" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
